--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1079,7 +1079,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,11 +1184,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1196,15 +1196,19 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44606</v>
+      </c>
+      <c r="G7" s="16">
+        <v>35000</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1212,15 +1216,19 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44606</v>
+      </c>
+      <c r="G8" s="16">
+        <v>19376</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1240,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1256,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1272,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,11 +1288,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1296,11 +1304,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1320,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1336,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1352,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1368,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1384,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1400,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1416,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1432,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1448,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1464,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1480,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1496,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1512,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1528,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1544,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1560,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1576,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1592,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1608,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1624,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1641,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1674,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>36250</v>
+        <v>90626</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1689,7 +1697,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>79431</v>
+        <v>25055</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1168,12 +1168,16 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44625</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8785</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7">
@@ -1184,11 +1188,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44609</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1204,11 +1208,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1224,11 +1228,11 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1240,11 +1244,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1256,11 +1260,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1272,11 +1276,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1288,11 +1292,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1304,11 +1308,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1320,11 +1324,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1336,11 +1340,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1352,11 +1356,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1368,11 +1372,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1384,11 +1388,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1400,11 +1404,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1416,11 +1420,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1432,11 +1436,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1448,11 +1452,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1464,11 +1468,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1480,11 +1484,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1496,11 +1500,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1512,11 +1516,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1528,11 +1532,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1544,11 +1548,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1560,11 +1564,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1576,11 +1580,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,11 +1596,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1608,11 +1612,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1641,11 +1645,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1670,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>115681</v>
+        <v>124466</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1697,7 +1701,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>25055</v>
+        <v>33840</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>HINDUSTAN TOYS</t>
-  </si>
-  <si>
-    <t>GS</t>
   </si>
   <si>
     <t>TOY GALLERY -UP MEERUT</t>
@@ -1080,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1103,7 +1100,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1148,51 +1145,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44499</v>
-      </c>
-      <c r="B5" s="8">
-        <v>115681</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1250</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>25055</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>135</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44625</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8785</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44543</v>
-      </c>
-      <c r="G6" s="8">
-        <v>35000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>9</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1200,19 +1181,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44606</v>
-      </c>
-      <c r="G7" s="16">
-        <v>35000</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,19 +1197,15 @@
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44606</v>
-      </c>
-      <c r="G8" s="16">
-        <v>19376</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1244,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1260,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1276,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1292,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1308,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1324,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1340,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1356,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1372,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1388,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1404,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1420,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1436,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1452,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1468,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1484,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1500,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1516,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1532,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1548,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1564,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1580,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1596,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1612,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1670,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>124466</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>90626</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1701,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>33840</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,19 +1145,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44821</v>
+      </c>
+      <c r="B5" s="8">
+        <v>12760</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1169,11 +1173,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1189,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1221,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1237,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1253,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>12760</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44849</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7966</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1177,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44849</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>7966</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>12760</v>
+        <v>4794</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44849</v>
+        <v>44851</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,27 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44821</v>
-      </c>
-      <c r="B5" s="8">
-        <v>12760</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44849</v>
-      </c>
-      <c r="G5" s="8">
-        <v>7966</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>30</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44851</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>12760</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1659,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>7966</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>4794</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44896</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,19 +1145,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>45034</v>
+      </c>
+      <c r="B5" s="8">
+        <v>11716</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1169,11 +1173,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1189,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1201,11 +1205,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1217,11 +1221,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1233,11 +1237,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1249,11 +1253,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1281,11 +1285,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1297,11 +1301,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1313,11 +1317,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1329,11 +1333,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1345,11 +1349,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1361,11 +1365,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1377,11 +1381,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1393,11 +1397,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1409,11 +1413,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1425,11 +1429,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1441,11 +1445,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1457,11 +1461,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1473,11 +1477,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1489,11 +1493,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1505,11 +1509,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1521,11 +1525,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1537,11 +1541,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1553,11 +1557,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1569,11 +1573,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1585,11 +1589,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1601,11 +1605,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1622,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1643,7 +1647,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>11716</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/UP MEERUT.xlsx
+++ b/IMPORTANT/UP MEERUT.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,23 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>45034</v>
-      </c>
-      <c r="B5" s="8">
-        <v>11716</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>10</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>11716</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
